--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Togo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05383ED7-1F80-4815-80E1-B056D1D95B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="209">
   <si>
     <t>type</t>
   </si>
@@ -114,7 +119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>Select the Sub-district (</t>
     </r>
@@ -123,7 +128,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>USP</t>
     </r>
@@ -132,7 +137,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -143,7 +148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>Sélectionner le sous-district (</t>
     </r>
@@ -152,7 +157,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>USP</t>
     </r>
@@ -161,7 +166,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -301,7 +306,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">select_one </t>
     </r>
@@ -310,7 +315,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>yesNo</t>
     </r>
@@ -706,26 +711,20 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>2. SCH/STH – Enrôlement</t>
-  </si>
-  <si>
     <t>tg_sch_sth_impact_2_child_202110</t>
   </si>
   <si>
     <t>French</t>
+  </si>
+  <si>
+    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -737,191 +736,35 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,194 +783,8 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1161,243 +818,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1468,62 +893,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1781,41 +1165,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9933333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.62" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.5133333333333" style="20" customWidth="1"/>
-    <col min="3" max="3" width="42.62" style="20" customWidth="1"/>
-    <col min="4" max="4" width="41.2533333333333" style="20" customWidth="1"/>
+    <col min="1" max="1" width="19.609375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="42.609375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" style="20" customWidth="1"/>
     <col min="5" max="5" width="47.5" style="20" customWidth="1"/>
-    <col min="6" max="6" width="47.38" customWidth="1"/>
-    <col min="7" max="7" width="12.6333333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.8733333333333" customWidth="1"/>
+    <col min="6" max="6" width="47.38671875" customWidth="1"/>
+    <col min="7" max="7" width="12.609375" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
     <col min="9" max="10" width="29.5" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="12.6333333333333" customWidth="1"/>
-    <col min="13" max="13" width="9.75333333333333" customWidth="1"/>
-    <col min="14" max="14" width="13.8666666666667" customWidth="1"/>
-    <col min="15" max="15" width="36.62" customWidth="1"/>
+    <col min="12" max="12" width="12.609375" customWidth="1"/>
+    <col min="13" max="13" width="9.71875" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="15" max="15" width="36.609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="36" spans="1:15">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1862,7 +1245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="31.5" spans="1:15">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -1899,7 +1282,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:15">
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
@@ -1926,7 +1309,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:15">
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -1953,7 +1336,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:15">
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -1980,7 +1363,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="31.5" spans="1:15">
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -2013,7 +1396,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" s="19" customFormat="1" ht="169.5" customHeight="1" spans="1:15">
+    <row r="7" spans="1:15" s="19" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -2038,7 +1421,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="31.5" spans="1:15">
+    <row r="8" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
@@ -2069,7 +1452,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="31.5" spans="1:15">
+    <row r="9" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
@@ -2098,7 +1481,7 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="47.25" spans="1:15">
+    <row r="10" spans="1:15" s="3" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
@@ -2127,7 +1510,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" s="19" customFormat="1" ht="63" spans="1:15">
+    <row r="11" spans="1:15" s="19" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -2156,7 +1539,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="31.5" spans="1:15">
+    <row r="12" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -2191,7 +1574,7 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:15">
+    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
         <v>71</v>
       </c>
@@ -2220,7 +1603,7 @@
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="47.25" spans="1:15">
+    <row r="14" spans="1:15" s="3" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9" t="s">
         <v>75</v>
       </c>
@@ -2247,11 +1630,13 @@
         <v>55</v>
       </c>
       <c r="L14" s="24"/>
-      <c r="M14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="31.5" spans="1:15">
+    <row r="15" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>75</v>
       </c>
@@ -2274,11 +1659,13 @@
         <v>55</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:15">
+    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -2295,7 +1682,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="78.75" spans="1:15">
+    <row r="17" spans="1:15" s="3" customFormat="1" ht="78.349999999999994" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9" t="s">
         <v>84</v>
       </c>
@@ -2324,7 +1711,7 @@
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" s="3" customFormat="1" ht="110.25" spans="1:15">
+    <row r="18" spans="1:15" s="3" customFormat="1" ht="109.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
@@ -2353,7 +1740,7 @@
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" s="3" customFormat="1" ht="78.75" spans="1:15">
+    <row r="19" spans="1:15" s="3" customFormat="1" ht="78.349999999999994" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9" t="s">
         <v>93</v>
       </c>
@@ -2382,7 +1769,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" s="3" customFormat="1" ht="110.25" spans="1:15">
+    <row r="20" spans="1:15" s="3" customFormat="1" ht="109.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9" t="s">
         <v>97</v>
       </c>
@@ -2411,7 +1798,7 @@
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
     </row>
-    <row r="21" s="3" customFormat="1" ht="78.75" spans="1:15">
+    <row r="21" spans="1:15" s="3" customFormat="1" ht="78.349999999999994" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9" t="s">
         <v>84</v>
       </c>
@@ -2440,7 +1827,7 @@
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="110.25" spans="1:15">
+    <row r="22" spans="1:15" s="3" customFormat="1" ht="109.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
@@ -2469,7 +1856,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="31.5" spans="1:15">
+    <row r="23" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9" t="s">
         <v>93</v>
       </c>
@@ -2498,7 +1885,7 @@
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="110.25" spans="1:15">
+    <row r="24" spans="1:15" s="3" customFormat="1" ht="109.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9" t="s">
         <v>97</v>
       </c>
@@ -2527,7 +1914,7 @@
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
     </row>
-    <row r="25" ht="31.5" spans="1:15">
+    <row r="25" spans="1:15" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="22" t="s">
         <v>116</v>
       </c>
@@ -2560,7 +1947,7 @@
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" ht="31.5" spans="1:15">
+    <row r="26" spans="1:15" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
@@ -2587,7 +1974,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" ht="47.25" spans="1:15">
+    <row r="27" spans="1:15" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="22" t="s">
         <v>41</v>
       </c>
@@ -2614,7 +2001,7 @@
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="22" t="s">
         <v>25</v>
       </c>
@@ -2639,7 +2026,7 @@
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="22" t="s">
         <v>134</v>
       </c>
@@ -2662,7 +2049,7 @@
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="9" t="s">
         <v>137</v>
       </c>
@@ -2688,30 +2075,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9933333333333" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="40" style="6" customWidth="1"/>
-    <col min="4" max="4" width="46.1333333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>139</v>
       </c>
@@ -2725,7 +2109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
         <v>140</v>
       </c>
@@ -2739,7 +2123,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -2753,7 +2137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
         <v>145</v>
       </c>
@@ -2767,7 +2151,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>145</v>
       </c>
@@ -2781,7 +2165,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:4">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="16" t="s">
         <v>149</v>
       </c>
@@ -2795,7 +2179,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" spans="1:4">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16" t="s">
         <v>149</v>
       </c>
@@ -2809,7 +2193,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" spans="1:4">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="16" t="s">
         <v>154</v>
       </c>
@@ -2823,7 +2207,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" spans="1:4">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="16" t="s">
         <v>154</v>
       </c>
@@ -2837,7 +2221,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:4">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="16" t="s">
         <v>154</v>
       </c>
@@ -2851,7 +2235,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" spans="1:4">
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="16" t="s">
         <v>154</v>
       </c>
@@ -2865,7 +2249,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:4">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="16" t="s">
         <v>154</v>
       </c>
@@ -2879,7 +2263,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="1:4">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="16" t="s">
         <v>154</v>
       </c>
@@ -2893,7 +2277,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" spans="1:4">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="16" t="s">
         <v>168</v>
       </c>
@@ -2907,7 +2291,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" spans="1:4">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="16" t="s">
         <v>168</v>
       </c>
@@ -2921,7 +2305,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" spans="1:4">
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="16" t="s">
         <v>168</v>
       </c>
@@ -2935,7 +2319,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" spans="1:4">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="16" t="s">
         <v>173</v>
       </c>
@@ -2949,7 +2333,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:4">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="16" t="s">
         <v>173</v>
       </c>
@@ -2963,7 +2347,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="16" t="s">
         <v>173</v>
       </c>
@@ -2977,7 +2361,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="16" t="s">
         <v>180</v>
       </c>
@@ -2991,7 +2375,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="16" t="s">
         <v>180</v>
       </c>
@@ -3005,7 +2389,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="16" t="s">
         <v>180</v>
       </c>
@@ -3019,7 +2403,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="16" t="s">
         <v>180</v>
       </c>
@@ -3033,7 +2417,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="16" t="s">
         <v>180</v>
       </c>
@@ -3047,7 +2431,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="16" t="s">
         <v>180</v>
       </c>
@@ -3061,7 +2445,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="16" t="s">
         <v>180</v>
       </c>
@@ -3075,7 +2459,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="18" t="s">
         <v>195</v>
       </c>
@@ -3089,7 +2473,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="18" t="s">
         <v>195</v>
       </c>
@@ -3106,27 +2490,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9933333333333" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="44.12" customWidth="1"/>
-    <col min="2" max="2" width="32.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
@@ -3140,23 +2522,22 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="C2">
         <v>20200630</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Togo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05383ED7-1F80-4815-80E1-B056D1D95B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="205">
   <si>
     <t>type</t>
   </si>
@@ -119,7 +113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Select the Sub-district (</t>
     </r>
@@ -128,7 +122,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>USP</t>
     </r>
@@ -137,19 +131,13 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Sélectionner le sous-district (</t>
     </r>
     <r>
@@ -157,7 +145,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>USP</t>
     </r>
@@ -166,7 +154,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -178,7 +166,7 @@
     <t>Select the site name</t>
   </si>
   <si>
-    <t>Entrez le nom de l'école</t>
+    <t>Sélectionner le nom de l'école</t>
   </si>
   <si>
     <t>p_site_id</t>
@@ -187,7 +175,7 @@
     <t>Select the site code</t>
   </si>
   <si>
-    <t>Entrez le code de l'école</t>
+    <t>Sélectionner le code de l'école</t>
   </si>
   <si>
     <t>regex(.,'^[0-9]{3}$')</t>
@@ -241,7 +229,7 @@
     <t>Comment est-ce que l'identifiant individuel sera-t-il généré?</t>
   </si>
   <si>
-    <t>${p_consent} = 'Given'</t>
+    <t>${p_consent} = 'A.donne'</t>
   </si>
   <si>
     <t>barcode</t>
@@ -250,13 +238,13 @@
     <t>p_barcodeid</t>
   </si>
   <si>
-    <t>Scan barcode now</t>
-  </si>
-  <si>
-    <t>Scanner le barcode</t>
-  </si>
-  <si>
-    <t>${p_idmethod} = 'Scanner' and ${p_consent} = 'Given'</t>
+    <t>Scan QR code now</t>
+  </si>
+  <si>
+    <t>Scanner le QR Code</t>
+  </si>
+  <si>
+    <t>${p_idmethod} = 'Scanner' and ${p_consent} = 'A.donne'</t>
   </si>
   <si>
     <t>p_code_id</t>
@@ -268,7 +256,7 @@
     <t>Veuillez enregistrer le code d'identification unique suivant pour le répondant sur une liste séparée et sur chaque test de diagnostic administré, y compris les tests Kato Katz et de Filtration Urinaire</t>
   </si>
   <si>
-    <t>${p_idmethod} != 'Scanner' and ${p_consent} = 'Given'</t>
+    <t>${p_idmethod} != 'Scanner' and ${p_consent} = 'A.donne'</t>
   </si>
   <si>
     <t>p_age_yrs</t>
@@ -306,7 +294,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">select_one </t>
     </r>
@@ -315,7 +303,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>yesNo</t>
     </r>
@@ -345,121 +333,28 @@
     <t>Un échantillon d’urine a-t-il été prélevé de cette personne?</t>
   </si>
   <si>
-    <t>select_one toilet_place</t>
-  </si>
-  <si>
-    <t>p_urinate_place</t>
-  </si>
-  <si>
-    <t>When you are at school, where do you usually go to urinate?</t>
-  </si>
-  <si>
-    <t>Où allez-vous habituellement pour uriner lorsque vous êtes à l'école?</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Given' and ${p_collected_stool} = 'Yes' and ${p_collected_urine} = 'Yes'</t>
-  </si>
-  <si>
-    <t>p_urinate_place_other</t>
-  </si>
-  <si>
-    <t>Please, specify other urinate place</t>
-  </si>
-  <si>
-    <t>Veuillez précisez les autres place d'urinage</t>
-  </si>
-  <si>
-    <t>${p_urinate_place} = 'Other' and ${p_consent} = 'Given' and ${p_collected_stool} = 'Yes' and ${p_collected_urine} = 'Yes'</t>
-  </si>
-  <si>
-    <t>select_one wash_hand</t>
-  </si>
-  <si>
-    <t>p_urinate_wash</t>
-  </si>
-  <si>
-    <t>Do you wash your hands after urinating?</t>
-  </si>
-  <si>
-    <t>Est-ce que vous vous lavez les mains après avoir uriner?</t>
-  </si>
-  <si>
-    <t>select_one not_was_hand_reason</t>
-  </si>
-  <si>
-    <t>p_urinate_wash_noreason</t>
-  </si>
-  <si>
-    <t>If no, why don't you wash your hand after urinating</t>
-  </si>
-  <si>
-    <t>Si non, pourquoi est-ce que vous ne vous lavez pas les mains après avoir uriner?</t>
-  </si>
-  <si>
-    <t>${p_urinate_wash} = 'No' and ${p_consent} = 'Given' and ${p_collected_stool} = 'Yes' and ${p_collected_urine} = 'Yes'</t>
-  </si>
-  <si>
-    <t>p_defecate_place</t>
-  </si>
-  <si>
-    <t>When you are at school, where do you usually go to defecate?</t>
-  </si>
-  <si>
-    <t>Où allez-vous habituellement pour déféquer lorsque vous êtes à l'école?</t>
-  </si>
-  <si>
-    <t>p_defecate_place_other</t>
-  </si>
-  <si>
-    <t>Please, specify other defecation place</t>
-  </si>
-  <si>
-    <t>Veuillez précisez les autres place de défécage</t>
-  </si>
-  <si>
-    <t>${p_defecate_place} = 'Other' and ${p_consent} = 'Given' and ${p_collected_stool} = 'Yes' and ${p_collected_urine} = 'Yes'</t>
-  </si>
-  <si>
-    <t>p_defecate_wash</t>
-  </si>
-  <si>
-    <t>Do you wash your hands after defecating?</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Given' and ${p_consent} = 'Given' and ${p_collected_stool} = 'Yes' and ${p_collected_urine} = 'Yes'</t>
-  </si>
-  <si>
-    <t>p_defecate_wash_noreason</t>
-  </si>
-  <si>
-    <t>If no, why don't you wash your hand after defecating</t>
-  </si>
-  <si>
-    <t>Est-ce que vous vous lavez les mains après avoir déféquer?</t>
-  </si>
-  <si>
-    <t>${p_defecate_wash} = 'No' and ${p_consent} = 'Given' and ${p_collected_stool} = 'Yes' and ${p_collected_urine} = 'Yes'</t>
-  </si>
-  <si>
-    <t>select_one water_activity</t>
-  </si>
-  <si>
-    <t>p_water_activities</t>
-  </si>
-  <si>
-    <t>Do you perform any of the following activities in fresh water bodies nearby?</t>
-  </si>
-  <si>
-    <t>If there are water bodies (river, stream, canal, lake, dam etc)</t>
-  </si>
-  <si>
-    <t>Laquelle des activités suivantes effectuez-vous?</t>
-  </si>
-  <si>
-    <t>S'il y a des cours d'eau (rivière, ruisseau, canal, lac, barrage, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${p_consent} = 'Given' and ${p_collected_stool} = 'Yes' and ${p_collected_urine} = 'Yes'</t>
+    <t>select_one grading</t>
+  </si>
+  <si>
+    <t>p_grading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was the haemastix result? </t>
+  </si>
+  <si>
+    <t>Graduation de la microhématurie</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'A.donne' and ${p_collected_stool} = 'Oui' and ${p_collected_urine} = 'Oui'</t>
+  </si>
+  <si>
+    <t>p_urine_conserve</t>
+  </si>
+  <si>
+    <t>Is this urine being saved for urine filtration?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette urine est-elle conservée pour la filtration de l’urine? </t>
   </si>
   <si>
     <t>p_ending_survey_note</t>
@@ -471,7 +366,7 @@
     <t>Vous venez d'entrer une valeur qui entrainera la fin de l'enquête</t>
   </si>
   <si>
-    <t>${p_consent} = 'Refused'</t>
+    <t>${p_consent} = 'A.refuse'</t>
   </si>
   <si>
     <t>p_sample_note</t>
@@ -483,7 +378,7 @@
     <t>Vous venez d'entrer une valeur qui entrainera la fin de l'enquête. Veuillez collecter les échantillons de selle et d'urine du participant.</t>
   </si>
   <si>
-    <t>${p_collected_stool} = 'No' and ${p_collected_urine} = 'No'</t>
+    <t>${p_collected_stool} = 'Non' and ${p_collected_urine} = 'Non'</t>
   </si>
   <si>
     <t>p_remarks</t>
@@ -516,18 +411,18 @@
     <t>yesNo</t>
   </si>
   <si>
+    <t>Oui</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Oui</t>
+    <t>Non</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Non</t>
-  </si>
-  <si>
     <t>p_IDMethod</t>
   </si>
   <si>
@@ -543,69 +438,90 @@
     <t>sex</t>
   </si>
   <si>
+    <t>Feminin</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Féminin</t>
   </si>
   <si>
+    <t>Masculin</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Masculin</t>
-  </si>
-  <si>
     <t>toilet_place</t>
   </si>
   <si>
+    <t>Dans.les.toilettes.de.l.ecole</t>
+  </si>
+  <si>
     <t>In the school toilet</t>
   </si>
   <si>
     <t>Dans les toilettes de l'école</t>
   </si>
   <si>
+    <t>Autour.de.la.cloture.de.l.ecole</t>
+  </si>
+  <si>
     <t>Around the school compound</t>
   </si>
   <si>
     <t>Autour de la cloture de l'école</t>
   </si>
   <si>
+    <t>a.l.exterieur.de.l.ecole</t>
+  </si>
+  <si>
     <t>Outside of school compound</t>
   </si>
   <si>
     <t>À l'extérieur de l'école</t>
   </si>
   <si>
+    <t>J.attends/Je.me.retiens</t>
+  </si>
+  <si>
     <t>I wait/hold it</t>
   </si>
   <si>
     <t>J'attends/Je me retiens</t>
   </si>
   <si>
+    <t>Ne.sais.pas</t>
+  </si>
+  <si>
     <t>Don't know</t>
   </si>
   <si>
     <t>Ne sais pas</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>Autres</t>
   </si>
   <si>
     <t>Others (specify)</t>
   </si>
   <si>
-    <t>Autres</t>
-  </si>
-  <si>
     <t>wash_hand</t>
   </si>
   <si>
+    <t>Oui,.avec.du.savon/cendre</t>
+  </si>
+  <si>
     <t>Yes-with soap/Ashes</t>
   </si>
   <si>
     <t>Oui, avec du savon/cendre</t>
   </si>
   <si>
+    <t>Oui,.sans.savon/cendre</t>
+  </si>
+  <si>
     <t>Yes- without soap/Ashes</t>
   </si>
   <si>
@@ -615,18 +531,27 @@
     <t>not_was_hand_reason</t>
   </si>
   <si>
+    <t>Eau.non.disponible.a.l.ecole</t>
+  </si>
+  <si>
     <t>Water not available in school</t>
   </si>
   <si>
     <t>Eau non disponible à l'école</t>
   </si>
   <si>
+    <t>J.oublie.toujours</t>
+  </si>
+  <si>
     <t>I always forget</t>
   </si>
   <si>
     <t>J'oublie toujours</t>
   </si>
   <si>
+    <t>Je.ne.pense.pas.que.ce.soit.important</t>
+  </si>
+  <si>
     <t>I don’t think it is important</t>
   </si>
   <si>
@@ -636,10 +561,13 @@
     <t>water_activity</t>
   </si>
   <si>
+    <t>Baignade</t>
+  </si>
+  <si>
     <t>Bathing</t>
   </si>
   <si>
-    <t>Baignade</t>
+    <t>Lessive,.vaisselle</t>
   </si>
   <si>
     <t>Washing clothes, dishes</t>
@@ -648,40 +576,49 @@
     <t>Lessive, vaisselle</t>
   </si>
   <si>
+    <t>Peche</t>
+  </si>
+  <si>
     <t>Fishing</t>
   </si>
   <si>
     <t>Pêche</t>
   </si>
   <si>
+    <t>Traversee.de.cours.d.eau</t>
+  </si>
+  <si>
     <t>Crossing water</t>
   </si>
   <si>
     <t>Traversée de cours d'eau</t>
   </si>
   <si>
+    <t>Puisage.de.l.eau.dans.des.cours.d.eau</t>
+  </si>
+  <si>
     <t>Fetching water</t>
   </si>
   <si>
     <t>Puisage de l'eau dans des cours d'eau</t>
   </si>
   <si>
+    <t>Jouer</t>
+  </si>
+  <si>
     <t>Playing</t>
   </si>
   <si>
-    <t>Jouer</t>
+    <t>Nager</t>
   </si>
   <si>
     <t>Swimming</t>
   </si>
   <si>
-    <t>Nager</t>
-  </si>
-  <si>
     <t>consent_list</t>
   </si>
   <si>
-    <t>Given</t>
+    <t>A.donne</t>
   </si>
   <si>
     <t>1. Given</t>
@@ -690,7 +627,7 @@
     <t>1. A donné</t>
   </si>
   <si>
-    <t>Refused</t>
+    <t>A.refuse</t>
   </si>
   <si>
     <t>2. Refused</t>
@@ -699,6 +636,45 @@
     <t>2. A refusé</t>
   </si>
   <si>
+    <t>grading</t>
+  </si>
+  <si>
+    <t>Negatif</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Négatif</t>
+  </si>
+  <si>
+    <t>Trace.non.hemolysee</t>
+  </si>
+  <si>
+    <t>Trace non-haemolysed</t>
+  </si>
+  <si>
+    <t>Trace non hémolysée</t>
+  </si>
+  <si>
+    <t>Trace.hemolysee</t>
+  </si>
+  <si>
+    <t>Trace haemolysed</t>
+  </si>
+  <si>
+    <t>Trace hémolysée</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -711,20 +687,26 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>tg_sch_sth_impact_2_child_202110</t>
+    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_2_child_202110_v1_1</t>
   </si>
   <si>
     <t>French</t>
-  </si>
-  <si>
-    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -736,35 +718,198 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,8 +928,194 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -818,9 +1149,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -828,7 +1401,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -866,6 +1439,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -893,21 +1469,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1165,87 +1785,88 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13:M15"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.609375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="42.609375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="47.5" style="20" customWidth="1"/>
-    <col min="6" max="6" width="47.38671875" customWidth="1"/>
-    <col min="7" max="7" width="12.609375" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.6066666666667" style="21" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="42.6066666666667" style="21" customWidth="1"/>
+    <col min="4" max="4" width="41.22" style="21" customWidth="1"/>
+    <col min="5" max="5" width="47.5" style="21" customWidth="1"/>
+    <col min="6" max="6" width="47.3866666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.6066666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.8866666666667" customWidth="1"/>
     <col min="9" max="10" width="29.5" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="12.609375" customWidth="1"/>
-    <col min="13" max="13" width="9.71875" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
-    <col min="15" max="15" width="36.609375" customWidth="1"/>
+    <col min="12" max="12" width="12.6066666666667" customWidth="1"/>
+    <col min="13" max="13" width="9.72" customWidth="1"/>
+    <col min="14" max="14" width="13.8866666666667" customWidth="1"/>
+    <col min="15" max="15" width="36.6066666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="19" customFormat="1" ht="36" spans="1:15">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" s="19" customFormat="1" ht="31.5" spans="1:15">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -1282,7 +1903,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" s="19" customFormat="1" spans="1:15">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
@@ -1301,7 +1922,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="24"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9" t="s">
         <v>24</v>
@@ -1309,7 +1930,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" s="19" customFormat="1" spans="1:15">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -1328,7 +1949,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="24"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
         <v>24</v>
@@ -1336,7 +1957,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" s="19" customFormat="1" spans="1:15">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -1363,7 +1984,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" s="19" customFormat="1" ht="31.5" spans="1:15">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -1396,7 +2017,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" s="19" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" s="20" customFormat="1" ht="169.5" customHeight="1" spans="1:15">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -1421,7 +2042,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" s="19" customFormat="1" ht="31.5" spans="1:15">
       <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
@@ -1452,7 +2073,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" s="19" customFormat="1" ht="31.5" spans="1:15">
       <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
@@ -1470,7 +2091,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="9" t="s">
         <v>55</v>
       </c>
@@ -1481,7 +2102,7 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" s="19" customFormat="1" ht="47.25" spans="1:15">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
@@ -1510,7 +2131,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15" s="19" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" s="20" customFormat="1" ht="63" spans="1:15">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -1539,7 +2160,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" s="19" customFormat="1" ht="31.5" spans="1:15">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -1574,7 +2195,7 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" s="19" customFormat="1" spans="1:15">
       <c r="A13" s="9" t="s">
         <v>71</v>
       </c>
@@ -1589,21 +2210,21 @@
         <v>74</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="24"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-    </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" s="19" customFormat="1" ht="47.25" spans="1:15">
       <c r="A14" s="9" t="s">
         <v>75</v>
       </c>
@@ -1622,21 +2243,21 @@
       <c r="F14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="26"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="24"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" s="19" customFormat="1" ht="31.5" spans="1:15">
       <c r="A15" s="9" t="s">
         <v>75</v>
       </c>
@@ -1651,453 +2272,228 @@
         <v>83</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="24"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" s="19" customFormat="1" ht="78.75" spans="1:15">
+      <c r="A16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="25"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" s="3" customFormat="1" ht="78.349999999999994" x14ac:dyDescent="0.55000000000000004">
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" s="19" customFormat="1" ht="78.75" spans="1:15">
       <c r="A17" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-    </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" ht="109.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9" t="s">
+      <c r="L17" s="25"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" ht="31.5" spans="1:15">
+      <c r="A18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" ht="47.25" spans="1:15">
+      <c r="A19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="1:15" s="3" customFormat="1" ht="78.349999999999994" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" ht="109.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="s">
+      <c r="B20" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="9" t="s">
+      <c r="C20" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-    </row>
-    <row r="21" spans="1:15" s="3" customFormat="1" ht="78.349999999999994" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11" t="s">
+      <c r="B21" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-    </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" ht="109.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-    </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-    </row>
-    <row r="24" spans="1:15" s="3" customFormat="1" ht="109.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-    </row>
-    <row r="25" spans="1:15" ht="31.35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" ht="31.35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="40" style="6" customWidth="1"/>
-    <col min="4" max="4" width="46.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="46.1066666666667" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -2109,435 +2505,522 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:4">
+      <c r="A6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="1:4">
+      <c r="A7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:4">
+      <c r="A8" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:4">
+      <c r="A9" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:4">
+      <c r="A10" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:4">
+      <c r="A11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="1:4">
+      <c r="A12" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="1:4">
+      <c r="A13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C13" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="D13" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="1:4">
+      <c r="A14" s="16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C14" s="17" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="12" t="s">
+    </row>
+    <row r="15" s="5" customFormat="1" spans="1:4">
+      <c r="A15" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="C15" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16" t="s">
+    </row>
+    <row r="16" s="5" customFormat="1" spans="1:4">
+      <c r="A16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" spans="1:4">
+      <c r="A17" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C17" s="17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16" t="s">
+      <c r="D17" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="1:4">
+      <c r="A18" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="11" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C19" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="B20" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C22" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="16" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="16" t="s">
+      <c r="D24" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="9" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C25" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="B27" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="B28" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="D28" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="9" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="B29" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C30" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D25" s="11" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="D31" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="18" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C32" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C33" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>201</v>
+      <c r="C34" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="44.1066666666667" customWidth="1"/>
+    <col min="2" max="2" width="32.1066666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.1066666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" ht="31.5" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="C2">
         <v>20200630</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="204">
   <si>
     <t>type</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
       <t>Sélectionner le sous-district (</t>
     </r>
     <r>
@@ -217,76 +223,19 @@
     <t>La réponse "Non" mettra fin à l'enquête</t>
   </si>
   <si>
-    <t>select_one p_IDMethod</t>
-  </si>
-  <si>
-    <t>p_idmethod</t>
-  </si>
-  <si>
-    <t>How will the individual's unique ID be generated?</t>
-  </si>
-  <si>
-    <t>Comment est-ce que l'identifiant individuel sera-t-il généré?</t>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>p_barcodeid</t>
+  </si>
+  <si>
+    <t>Scan QR code now</t>
+  </si>
+  <si>
+    <t>Veuillez scanner le QR Code</t>
   </si>
   <si>
     <t>${p_consent} = 'A.donne'</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>p_barcodeid</t>
-  </si>
-  <si>
-    <t>Scan QR code now</t>
-  </si>
-  <si>
-    <t>Scanner le QR Code</t>
-  </si>
-  <si>
-    <t>${p_idmethod} = 'Scanner' and ${p_consent} = 'A.donne'</t>
-  </si>
-  <si>
-    <t>p_code_id</t>
-  </si>
-  <si>
-    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered, including Kato Katz and Urine Filtration tests</t>
-  </si>
-  <si>
-    <t>Veuillez enregistrer le code d'identification unique suivant pour le répondant sur une liste séparée et sur chaque test de diagnostic administré, y compris les tests Kato Katz et de Filtration Urinaire</t>
-  </si>
-  <si>
-    <t>${p_idmethod} != 'Scanner' and ${p_consent} = 'A.donne'</t>
-  </si>
-  <si>
-    <t>p_age_yrs</t>
-  </si>
-  <si>
-    <t>Enter the age in years</t>
-  </si>
-  <si>
-    <t>Entrez l'âge en années</t>
-  </si>
-  <si>
-    <t>. &gt;= 5 and . &lt;= 15</t>
-  </si>
-  <si>
-    <t>The age must be between 4 and 16 years</t>
-  </si>
-  <si>
-    <t>L’âge doit être compris entre 4 et 16 ans</t>
-  </si>
-  <si>
-    <t>select_one sex</t>
-  </si>
-  <si>
-    <t>p_sex</t>
-  </si>
-  <si>
-    <t>Select the gender</t>
-  </si>
-  <si>
-    <t>Sélectionnez le sexe</t>
   </si>
   <si>
     <r>
@@ -309,6 +258,63 @@
     </r>
   </si>
   <si>
+    <t>p_barcode_ok</t>
+  </si>
+  <si>
+    <t>Le code QR a-t-il été correctement scanné</t>
+  </si>
+  <si>
+    <t>p_manual_code_id</t>
+  </si>
+  <si>
+    <t>Enter the QR code manually</t>
+  </si>
+  <si>
+    <t>Saisez le code QR manuellement</t>
+  </si>
+  <si>
+    <t>regex(., '^[A-Z]{3}[0-9]{4}$')</t>
+  </si>
+  <si>
+    <t>Format incorrect. Ex d'un format correct: TCH0001</t>
+  </si>
+  <si>
+    <t>Incorrect format. Example of a correct format: TCH0001</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'A.donne' and ${p_barcodeid} = 'Non'</t>
+  </si>
+  <si>
+    <t>p_age_yrs</t>
+  </si>
+  <si>
+    <t>Enter the age in years</t>
+  </si>
+  <si>
+    <t>Entrez l'âge en années</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 15</t>
+  </si>
+  <si>
+    <t>The age must be between 4 and 16 years</t>
+  </si>
+  <si>
+    <t>L’âge doit être compris entre 4 et 16 ans</t>
+  </si>
+  <si>
+    <t>select_one sex</t>
+  </si>
+  <si>
+    <t>p_sex</t>
+  </si>
+  <si>
+    <t>Select the gender</t>
+  </si>
+  <si>
+    <t>Sélectionnez le sexe</t>
+  </si>
+  <si>
     <t>p_collected_stool</t>
   </si>
   <si>
@@ -681,16 +687,13 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_2_child_202110_v1_1</t>
+    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement V2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_2_child_202110_v2</t>
   </si>
   <si>
     <t>French</t>
@@ -701,10 +704,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -734,11 +737,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,9 +776,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,32 +791,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -809,38 +813,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,13 +838,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -869,17 +874,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,6 +933,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -942,43 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,37 +1101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,85 +1113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,11 +1153,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,6 +1188,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,17 +1231,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,162 +1250,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1463,10 +1466,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1793,12 +1796,12 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2073,7 +2076,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" s="19" customFormat="1" ht="31.5" spans="1:15">
+    <row r="9" s="19" customFormat="1" spans="1:15">
       <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
@@ -2089,9 +2092,9 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="27"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="9" t="s">
         <v>55</v>
       </c>
@@ -2102,28 +2105,24 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" s="19" customFormat="1" ht="47.25" spans="1:15">
+    <row r="10" s="19" customFormat="1" spans="1:15">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="9"/>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
         <v>24</v>
@@ -2131,27 +2130,33 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" s="20" customFormat="1" ht="63" spans="1:15">
+    <row r="11" s="20" customFormat="1" ht="47.25" spans="1:15">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="11"/>
+      <c r="H11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="K11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9" t="s">
@@ -2165,25 +2170,25 @@
         <v>15</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>55</v>
@@ -2197,23 +2202,23 @@
     </row>
     <row r="13" s="19" customFormat="1" spans="1:15">
       <c r="A13" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="9" t="s">
         <v>55</v>
       </c>
@@ -2226,7 +2231,7 @@
     </row>
     <row r="14" s="19" customFormat="1" ht="47.25" spans="1:15">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>76</v>
@@ -2245,8 +2250,8 @@
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="9" t="s">
         <v>55</v>
       </c>
@@ -2259,7 +2264,7 @@
     </row>
     <row r="15" s="19" customFormat="1" ht="31.5" spans="1:15">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>81</v>
@@ -2274,8 +2279,8 @@
       <c r="F15" s="11"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="9" t="s">
         <v>55</v>
       </c>
@@ -2303,8 +2308,8 @@
       <c r="F16" s="11"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="9" t="s">
         <v>88</v>
       </c>
@@ -2315,7 +2320,7 @@
     </row>
     <row r="17" s="19" customFormat="1" ht="78.75" spans="1:15">
       <c r="A17" s="9" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>89</v>
@@ -2330,8 +2335,8 @@
       <c r="F17" s="11"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="9" t="s">
         <v>88</v>
       </c>
@@ -2477,7 +2482,7 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A29" sqref="A29:A34"/>
@@ -2977,20 +2982,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="44.1066666666667" customWidth="1"/>
     <col min="2" max="2" width="32.1066666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.1066666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
@@ -3000,22 +3004,16 @@
       <c r="C1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" ht="31.5" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
         <v>203</v>
-      </c>
-      <c r="C2">
-        <v>20200630</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
@@ -163,10 +163,10 @@
     <t>p_site</t>
   </si>
   <si>
-    <t>Select the site name</t>
-  </si>
-  <si>
-    <t>Sélectionner le nom de l'école</t>
+    <t>Select the village</t>
+  </si>
+  <si>
+    <t>Sélectionner le nom du village</t>
   </si>
   <si>
     <t>subdistrict_list= ${p_subdistrict}</t>
@@ -1932,10 +1932,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement V3</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_2_child_202110_v3</t>
+    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement V4</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_2_child_202110_v4</t>
   </si>
   <si>
     <t>French</t>
@@ -1946,10 +1946,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1993,9 +1993,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2008,15 +2007,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2031,13 +2023,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2046,17 +2031,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2069,24 +2045,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2107,8 +2067,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2123,6 +2106,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -2131,14 +2122,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2207,13 +2207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2225,31 +2225,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,31 +2261,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2303,7 +2291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2315,13 +2309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2333,43 +2321,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2381,7 +2363,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2445,15 +2445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2465,6 +2456,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2483,186 +2518,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3080,7 +3080,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
@@ -214,7 +214,7 @@
     <t>Please scan the QR code for the correct district. The first three letters of the QR code must match the first three letters of the district name. For example, TCH0001 for TCHAOUDJO.</t>
   </si>
   <si>
-    <t>Veuillez scanner le QR code du bon district. Les trois premières lettres du SR code doivent correspondre aux trois premières lettres du nom du district. For example, TCH0001 for TCHAOUDJO.</t>
+    <t>Veuillez scanner le QR code du bon district. Les trois premières lettres du SR code doivent correspondre aux trois premières lettres du nom du district. Par exemple: TCH0001 for TCHAOUDJO.</t>
   </si>
   <si>
     <t>${p_consent} = 'A.donne'</t>
@@ -264,7 +264,7 @@
     <t>Please enter the code from the QR code sticker. The format is the first three letters of the district followed by four digits. For example, TCH0001 for TCHAOUDJO</t>
   </si>
   <si>
-    <t>Veuillez saisir le code de l'autocollant du QR code. Le format est les trois premières lettres du district suivie de quatre chiffres. Par exemple, TCH0001 pour TCHAOUDJO</t>
+    <t>Veuillez saisir le code de l'autocollant du QR code. Le format est les trois premières lettres du district suivie de quatre chiffres. Par exemple: TCH0001 pour TCHAOUDJO</t>
   </si>
   <si>
     <t>${p_consent} = 'A.donne' and ${p_barcode_ok} = 'Non'</t>
@@ -282,13 +282,13 @@
     <t>Entrez l'âge en années</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 15</t>
-  </si>
-  <si>
-    <t>The age must be between 4 and 16 years</t>
-  </si>
-  <si>
-    <t>L’âge doit être compris entre 4 et 16 ans</t>
+    <t>. &gt;= 5 and . &lt;= 14</t>
+  </si>
+  <si>
+    <t>The age must be between 4 and 15 years</t>
+  </si>
+  <si>
+    <t>L’âge doit être compris entre 4 et 15 ans</t>
   </si>
   <si>
     <t>select_one sex</t>
@@ -1932,10 +1932,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement V4</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_2_child_202110_v4</t>
+    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement V5</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_2_child_202110_v5</t>
   </si>
   <si>
     <t>French</t>
@@ -1946,9 +1946,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
@@ -1993,14 +1993,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2008,57 +2000,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2070,31 +2015,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2117,7 +2040,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2131,14 +2115,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2201,13 +2201,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,19 +2231,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2249,7 +2273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,19 +2291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2285,7 +2315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2297,13 +2327,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2315,31 +2345,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2351,37 +2375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2445,6 +2445,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2460,17 +2471,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2499,170 +2504,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3076,11 +3076,11 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11560,7 +11560,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -444,18 +444,12 @@
     <t>AGOSSOU A. Adolphe  </t>
   </si>
   <si>
-    <t>AKPANLI Komivi  </t>
-  </si>
-  <si>
     <t>AMADOU Moussa </t>
   </si>
   <si>
     <t>ANAGO Espoir  </t>
   </si>
   <si>
-    <t>BADAKI Abalo Charles </t>
-  </si>
-  <si>
     <t>FONVI Akakpo </t>
   </si>
   <si>
@@ -465,6 +459,9 @@
     <t>GNAMEY Judith </t>
   </si>
   <si>
+    <t>HOUNYOVI Ayaovi</t>
+  </si>
+  <si>
     <t>KAMASSA Hélène </t>
   </si>
   <si>
@@ -483,7 +480,10 @@
     <t>NAKOME Bamouni  </t>
   </si>
   <si>
-    <t>PABAKA Kokou  </t>
+    <t>NOUSSOUGNON Kokou</t>
+  </si>
+  <si>
+    <t>SOH Atafembou</t>
   </si>
   <si>
     <t>SOSSOU Efoe Stephane </t>
@@ -1943,10 +1943,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1999,14 +1999,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2027,9 +2027,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2044,17 +2114,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2065,70 +2127,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2198,13 +2198,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2216,13 +2276,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2234,25 +2348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2264,85 +2366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2354,31 +2378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2457,17 +2457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2479,15 +2468,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2509,118 +2489,138 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2629,31 +2629,31 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3733,10 +3733,10 @@
   <sheetPr/>
   <dimension ref="A1:H466"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -11556,7 +11556,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1929,10 +1929,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement V5</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_2_child_202110_v5</t>
+    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement V6</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_2_child_202110_v6</t>
   </si>
   <si>
     <t>French</t>
@@ -1943,9 +1943,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
@@ -1999,6 +1999,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2021,14 +2028,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2040,30 +2047,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2082,9 +2065,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2098,46 +2133,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2204,7 +2204,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2216,7 +2222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2228,7 +2234,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2240,97 +2342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2342,13 +2354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2360,19 +2366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2448,30 +2448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2501,8 +2477,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2515,148 +2491,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3072,7 +3072,7 @@
   <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3733,7 +3733,7 @@
   <sheetPr/>
   <dimension ref="A1:H466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:D24"/>
@@ -11557,7 +11557,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_2_child_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <t>Veuillez scanner le QR Code</t>
   </si>
   <si>
-    <t>regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${p_district}, 0, 3) = substr(., 0, 3)</t>
+    <t>(regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${p_district}, 0, 3) = substr(., 0, 3) and ${p_district} != 'KPENDJAL OUEST') or (if(${p_district} = 'KPENDJAL OUEST', if(substr(., 0, 3) = 'OUE', true(), false()), false()) and regex(., '^[A-Z]{3}[0-9]{4}$'))</t>
   </si>
   <si>
     <t>Please scan the QR code for the correct district. The first three letters of the QR code must match the first three letters of the district name. For example, TCH0001 for TCHAOUDJO.</t>
@@ -1929,10 +1929,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement V6</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_2_child_202110_v6</t>
+    <t>(Octobre 2021) - 2. SCH/STH – Enrôlement V6.2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_2_child_202110_v6_2</t>
   </si>
   <si>
     <t>French</t>
@@ -1943,9 +1943,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
@@ -2006,14 +2006,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2027,8 +2027,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2051,10 +2068,18 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2065,9 +2090,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2081,31 +2127,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2115,29 +2138,6 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2198,19 +2198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2234,13 +2228,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2270,31 +2288,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2312,49 +2366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2366,19 +2378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2448,6 +2448,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2459,26 +2468,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2509,6 +2498,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2518,142 +2518,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3072,12 +3072,12 @@
   <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -3734,9 +3734,9 @@
   <dimension ref="A1:H466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D24"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -11556,8 +11556,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -11577,7 +11577,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="31.5" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>614</v>
       </c>
